--- a/data/trans_orig/PER_CONT_AIRE_OTROS-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE_OTROS-Estudios-trans_orig.xlsx
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica procedente otro origen en País Vasco</t>
+          <t>Percepción contaminación atmosférica procedente otro origen en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2607,7 +2607,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica procedente otro origen en C.Valenciana</t>
+          <t>Percepción contaminación atmosférica procedente otro origen en C.Valenciana (tasa de respuesta: 93,59%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_CONT_AIRE_OTROS-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE_OTROS-Estudios-trans_orig.xlsx
@@ -734,32 +734,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>82430</t>
+          <t>74978</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>79511</t>
+          <t>72490</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>84759</t>
+          <t>77020</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>90,39%</t>
+          <t>90,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>87,19%</t>
+          <t>87,63%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>93,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -769,32 +769,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>116003</t>
+          <t>107881</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>112481</t>
+          <t>105242</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>118610</t>
+          <t>110172</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>90,69%</t>
+          <t>91,51%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>87,94%</t>
+          <t>89,27%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>92,73%</t>
+          <t>93,45%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -804,32 +804,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>198433</t>
+          <t>182859</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>194081</t>
+          <t>179144</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>201920</t>
+          <t>186015</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>90,56%</t>
+          <t>91,15%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>88,58%</t>
+          <t>89,3%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>92,15%</t>
+          <t>92,72%</t>
         </is>
       </c>
     </row>
@@ -847,32 +847,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6931</t>
+          <t>5939</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4817</t>
+          <t>4232</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9504</t>
+          <t>8240</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8480</t>
+          <t>7851</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6278</t>
+          <t>5883</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11295</t>
+          <t>10382</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -917,32 +917,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>15411</t>
+          <t>13790</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>12382</t>
+          <t>11009</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>19578</t>
+          <t>17341</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>8,64%</t>
         </is>
       </c>
     </row>
@@ -960,32 +960,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1835</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>840</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3235</t>
+          <t>3467</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -995,32 +995,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3430</t>
+          <t>2159</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2040</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5678</t>
+          <t>3666</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1030,32 +1030,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>5265</t>
+          <t>3965</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>3396</t>
+          <t>2594</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>7575</t>
+          <t>6001</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>2,99%</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1108,17 +1108,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1143,17 +1143,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1190,32 +1190,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>416380</t>
+          <t>422762</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>410038</t>
+          <t>417036</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>422043</t>
+          <t>428209</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>89,83%</t>
+          <t>90,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>88,46%</t>
+          <t>89,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>91,05%</t>
+          <t>91,46%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>397692</t>
+          <t>408910</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>391890</t>
+          <t>403696</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>402985</t>
+          <t>413844</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>90,52%</t>
+          <t>91,09%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>89,2%</t>
+          <t>89,93%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>91,72%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1260,32 +1260,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>814072</t>
+          <t>831671</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>805453</t>
+          <t>823777</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>821983</t>
+          <t>838996</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>90,17%</t>
+          <t>90,68%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>89,21%</t>
+          <t>89,82%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>91,04%</t>
+          <t>91,48%</t>
         </is>
       </c>
     </row>
@@ -1303,32 +1303,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>31617</t>
+          <t>29769</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26695</t>
+          <t>25591</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>37036</t>
+          <t>34676</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1338,32 +1338,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27075</t>
+          <t>24362</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23133</t>
+          <t>20564</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>31955</t>
+          <t>28848</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1373,32 +1373,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>58692</t>
+          <t>54130</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>52388</t>
+          <t>48246</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>65833</t>
+          <t>60155</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>6,56%</t>
         </is>
       </c>
     </row>
@@ -1416,17 +1416,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15510</t>
+          <t>15684</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12294</t>
+          <t>12284</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19533</t>
+          <t>19122</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1436,12 +1436,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1451,32 +1451,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14583</t>
+          <t>15652</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11328</t>
+          <t>12410</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18260</t>
+          <t>19924</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1486,32 +1486,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>30093</t>
+          <t>31335</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>25306</t>
+          <t>26567</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>35799</t>
+          <t>36603</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,99%</t>
         </is>
       </c>
     </row>
@@ -1529,17 +1529,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1646,32 +1646,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>140393</t>
+          <t>168187</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>136653</t>
+          <t>164050</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>143282</t>
+          <t>171286</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>90,43%</t>
+          <t>91,12%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>88,02%</t>
+          <t>88,88%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>92,29%</t>
+          <t>92,8%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1681,32 +1681,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>179417</t>
+          <t>217686</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>175179</t>
+          <t>213143</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>182989</t>
+          <t>221636</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>89,76%</t>
+          <t>90,16%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>87,64%</t>
+          <t>88,27%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>91,55%</t>
+          <t>91,79%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1716,32 +1716,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>319810</t>
+          <t>385873</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>314517</t>
+          <t>379613</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>324839</t>
+          <t>391138</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>90,05%</t>
+          <t>90,57%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>88,56%</t>
+          <t>89,1%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>91,47%</t>
+          <t>91,81%</t>
         </is>
       </c>
     </row>
@@ -1759,32 +1759,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9974</t>
+          <t>10036</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7512</t>
+          <t>7394</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13388</t>
+          <t>13157</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1794,32 +1794,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14015</t>
+          <t>15803</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10853</t>
+          <t>12653</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17313</t>
+          <t>19587</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1829,32 +1829,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>23989</t>
+          <t>25839</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>19802</t>
+          <t>21586</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>28402</t>
+          <t>30692</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>7,2%</t>
         </is>
       </c>
     </row>
@@ -1872,32 +1872,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4888</t>
+          <t>6361</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3376</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7432</t>
+          <t>9116</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1907,32 +1907,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6444</t>
+          <t>7966</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>4619</t>
+          <t>5700</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>9184</t>
+          <t>10905</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1942,32 +1942,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>11332</t>
+          <t>14327</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>8713</t>
+          <t>11236</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>14725</t>
+          <t>18423</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,32%</t>
         </is>
       </c>
     </row>
@@ -1985,17 +1985,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,17 +2020,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,17 +2055,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,32 +2102,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>639203</t>
+          <t>665928</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>630555</t>
+          <t>658613</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>645943</t>
+          <t>672893</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>90,03%</t>
+          <t>90,54%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>88,82%</t>
+          <t>89,54%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>90,98%</t>
+          <t>91,48%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2137,32 +2137,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>693112</t>
+          <t>734476</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>685872</t>
+          <t>726904</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>700831</t>
+          <t>741243</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>90,35%</t>
+          <t>90,87%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>89,41%</t>
+          <t>89,93%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>91,36%</t>
+          <t>91,71%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2172,32 +2172,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>1332315</t>
+          <t>1400404</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>1320192</t>
+          <t>1390062</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1342134</t>
+          <t>1410237</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>90,2%</t>
+          <t>90,71%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>89,38%</t>
+          <t>90,04%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>90,86%</t>
+          <t>91,35%</t>
         </is>
       </c>
     </row>
@@ -2215,32 +2215,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>48522</t>
+          <t>45744</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>42948</t>
+          <t>40203</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>55538</t>
+          <t>52047</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2250,32 +2250,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>49569</t>
+          <t>48015</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>43540</t>
+          <t>42382</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>55493</t>
+          <t>54376</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2285,32 +2285,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>98092</t>
+          <t>93759</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>89754</t>
+          <t>86034</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>108166</t>
+          <t>102343</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>6,63%</t>
         </is>
       </c>
     </row>
@@ -2328,32 +2328,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>22233</t>
+          <t>23851</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>18563</t>
+          <t>19617</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>26390</t>
+          <t>29286</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2363,17 +2363,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>24457</t>
+          <t>25777</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>20083</t>
+          <t>21369</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>29396</t>
+          <t>30636</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2383,12 +2383,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2398,32 +2398,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>46690</t>
+          <t>49628</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>40860</t>
+          <t>43167</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>53133</t>
+          <t>55914</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,62%</t>
         </is>
       </c>
     </row>
@@ -2441,17 +2441,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2476,17 +2476,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">

--- a/data/trans_orig/PER_CONT_AIRE_OTROS-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE_OTROS-Estudios-trans_orig.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica procedente otro origen en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Percepción contaminación atmosférica procedente otro origen en C.Valenciana (tasa de respuesta: 93,59%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -729,107 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>510</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>74978</t>
+          <t>193968</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>72490</t>
+          <t>186104</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>77020</t>
+          <t>199604</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>90,64%</t>
+          <t>92,08%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>87,63%</t>
+          <t>88,35%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>93,11%</t>
+          <t>94,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>548</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>107881</t>
+          <t>227620</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>105242</t>
+          <t>220165</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>110172</t>
+          <t>233777</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>91,51%</t>
+          <t>91,33%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>89,27%</t>
+          <t>88,33%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
+          <t>93,8%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>421589</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>409876</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>429749</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>91,67%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>89,12%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
           <t>93,45%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>1157</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>182859</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>179144</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>186015</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>91,15%</t>
-        </is>
-      </c>
-      <c r="V4" s="2" t="inlineStr">
-        <is>
-          <t>89,3%</t>
-        </is>
-      </c>
-      <c r="W4" s="2" t="inlineStr">
-        <is>
-          <t>92,72%</t>
         </is>
       </c>
     </row>
@@ -842,107 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5939</t>
+          <t>15498</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4232</t>
+          <t>9841</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8240</t>
+          <t>23088</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7851</t>
+          <t>18499</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>12816</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10382</t>
+          <t>25451</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>71</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>13790</t>
+          <t>33997</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>11009</t>
+          <t>25911</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>17341</t>
+          <t>44705</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>9,72%</t>
         </is>
       </c>
     </row>
@@ -955,107 +955,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1182</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>327</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3467</t>
+          <t>3298</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2159</t>
+          <t>3121</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1270</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3666</t>
+          <t>7254</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>9</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>3965</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>2594</t>
+          <t>1892</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>6001</t>
+          <t>7869</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>545</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>210649</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>210649</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>210649</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1103,22 +1103,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>593</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>249240</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>249240</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>249240</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1138,22 +1138,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>1138</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>459889</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>459889</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>459889</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1185,107 +1185,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>1430</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>422762</t>
+          <t>741804</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>417036</t>
+          <t>730992</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>428209</t>
+          <t>751711</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>90,29%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,07%</t>
+          <t>91,93%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>91,46%</t>
+          <t>94,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2289</t>
+          <t>1268</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>408910</t>
+          <t>709745</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>403696</t>
+          <t>697990</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>413844</t>
+          <t>720818</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>91,09%</t>
+          <t>92,76%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>89,93%</t>
+          <t>91,23%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>94,21%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>4689</t>
+          <t>2698</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>831671</t>
+          <t>1451549</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>823777</t>
+          <t>1436899</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>838996</t>
+          <t>1465797</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>90,68%</t>
+          <t>93,03%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>89,82%</t>
+          <t>92,09%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>91,48%</t>
+          <t>93,95%</t>
         </is>
       </c>
     </row>
@@ -1298,107 +1298,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29769</t>
+          <t>46415</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25591</t>
+          <t>37018</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34676</t>
+          <t>57202</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24362</t>
+          <t>49413</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20564</t>
+          <t>38611</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28848</t>
+          <t>61183</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>181</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>54130</t>
+          <t>95828</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>48246</t>
+          <t>82663</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>60155</t>
+          <t>110592</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>7,09%</t>
         </is>
       </c>
     </row>
@@ -1411,107 +1411,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15684</t>
+          <t>6927</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12284</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19122</t>
+          <t>11708</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15652</t>
+          <t>5960</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12410</t>
+          <t>2995</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19924</t>
+          <t>10703</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>24</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>31335</t>
+          <t>12887</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>26567</t>
+          <t>7796</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>36603</t>
+          <t>19129</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>1,23%</t>
         </is>
       </c>
     </row>
@@ -1524,22 +1524,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2656</t>
+          <t>1537</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>795146</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>795146</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>795146</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1559,22 +1559,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>1366</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>765118</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>765118</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>765118</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1594,22 +1594,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>5173</t>
+          <t>2903</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>1560264</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>1560264</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>1560264</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1641,107 +1641,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>602</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>168187</t>
+          <t>345043</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>164050</t>
+          <t>334928</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>171286</t>
+          <t>352103</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>91,12%</t>
+          <t>93,12%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>88,88%</t>
+          <t>90,39%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>92,8%</t>
+          <t>95,03%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1084</t>
+          <t>618</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>217686</t>
+          <t>363565</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>213143</t>
+          <t>351619</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>221636</t>
+          <t>373102</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>90,16%</t>
+          <t>89,73%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>88,27%</t>
+          <t>86,78%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>91,79%</t>
+          <t>92,09%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1915</t>
+          <t>1220</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>385873</t>
+          <t>708608</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>379613</t>
+          <t>694322</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>391138</t>
+          <t>720194</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>90,57%</t>
+          <t>91,35%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>89,1%</t>
+          <t>89,51%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>91,81%</t>
+          <t>92,85%</t>
         </is>
       </c>
     </row>
@@ -1754,107 +1754,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>23252</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>16758</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>32639</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6,28%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4,52%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8,81%</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>52</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>10036</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>7394</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>13157</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>5,44%</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>4,01%</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>7,13%</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15803</t>
+          <t>34507</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12653</t>
+          <t>25828</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>19587</t>
+          <t>46220</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>90</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>25839</t>
+          <t>57759</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>21586</t>
+          <t>46665</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>30692</t>
+          <t>71141</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>9,17%</t>
         </is>
       </c>
     </row>
@@ -1867,107 +1867,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6361</t>
+          <t>2229</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4242</t>
+          <t>419</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9116</t>
+          <t>6245</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7966</t>
+          <t>7099</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>5700</t>
+          <t>3511</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>10905</t>
+          <t>12293</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>14</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>14327</t>
+          <t>9328</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>11236</t>
+          <t>4837</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>18423</t>
+          <t>16148</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>2,08%</t>
         </is>
       </c>
     </row>
@@ -1980,22 +1980,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>643</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>370523</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>370523</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>370523</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2015,22 +2015,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>681</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>405171</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>405171</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>405171</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2050,22 +2050,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2122</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>775695</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>775695</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>775695</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2097,107 +2097,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3694</t>
+          <t>2542</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>665928</t>
+          <t>1280815</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>658613</t>
+          <t>1263818</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>672893</t>
+          <t>1293744</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>90,54%</t>
+          <t>93,06%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>89,54%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>91,48%</t>
+          <t>94,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4067</t>
+          <t>2434</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>734476</t>
+          <t>1300931</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>726904</t>
+          <t>1283848</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>741243</t>
+          <t>1316782</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>90,87%</t>
+          <t>91,65%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>89,93%</t>
+          <t>90,44%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>91,71%</t>
+          <t>92,76%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>7761</t>
+          <t>4976</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>1400404</t>
+          <t>2581746</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>1390062</t>
+          <t>2559041</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1410237</t>
+          <t>2604751</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>90,71%</t>
+          <t>92,34%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>90,04%</t>
+          <t>91,53%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>91,35%</t>
+          <t>93,16%</t>
         </is>
       </c>
     </row>
@@ -2210,107 +2210,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>45744</t>
+          <t>85165</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>40203</t>
+          <t>72639</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>52047</t>
+          <t>100899</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>179</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>48015</t>
+          <t>102419</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>42382</t>
+          <t>87370</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>54376</t>
+          <t>118753</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>342</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>93759</t>
+          <t>187584</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>86034</t>
+          <t>165207</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>102343</t>
+          <t>208292</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>7,45%</t>
         </is>
       </c>
     </row>
@@ -2323,107 +2323,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>23851</t>
+          <t>10338</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>19617</t>
+          <t>6323</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>29286</t>
+          <t>16122</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>25777</t>
+          <t>16179</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>21369</t>
+          <t>10952</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>30636</t>
+          <t>24665</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>47</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>49628</t>
+          <t>26518</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>43167</t>
+          <t>19250</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>55914</t>
+          <t>35174</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>1,26%</t>
         </is>
       </c>
     </row>
@@ -2436,22 +2436,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4077</t>
+          <t>2725</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>1376318</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>1376318</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>1376318</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2471,22 +2471,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4484</t>
+          <t>2640</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>1419530</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>1419530</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>1419530</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2506,22 +2506,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>8561</t>
+          <t>5365</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>2795848</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>2795848</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>2795848</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2607,7 +2607,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica procedente otro origen en C.Valenciana (tasa de respuesta: 93,59%)</t>
+          <t>Percepción contaminación atmosférica procedente otro origen en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2792,107 +2792,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>463</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>193968</t>
+          <t>74978</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>186104</t>
+          <t>72490</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>199604</t>
+          <t>77020</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>92,08%</t>
+          <t>90,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>88,35%</t>
+          <t>87,63%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>93,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>694</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>227620</t>
+          <t>107881</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>220165</t>
+          <t>105242</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>233777</t>
+          <t>110172</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>91,33%</t>
+          <t>91,51%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>88,33%</t>
+          <t>89,27%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>93,8%</t>
+          <t>93,45%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>1058</t>
+          <t>1157</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>421589</t>
+          <t>182859</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>409876</t>
+          <t>179144</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>429749</t>
+          <t>186015</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>91,67%</t>
+          <t>91,15%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>89,12%</t>
+          <t>89,3%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>93,45%</t>
+          <t>92,72%</t>
         </is>
       </c>
     </row>
@@ -2905,107 +2905,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15498</t>
+          <t>5939</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9841</t>
+          <t>4232</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23088</t>
+          <t>8240</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18499</t>
+          <t>7851</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12816</t>
+          <t>5883</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25451</t>
+          <t>10382</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>83</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>33997</t>
+          <t>13790</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>25911</t>
+          <t>11009</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>44705</t>
+          <t>17341</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>8,64%</t>
         </is>
       </c>
     </row>
@@ -3018,107 +3018,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>840</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3298</t>
+          <t>3467</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3121</t>
+          <t>2159</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7254</t>
+          <t>3666</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>4303</t>
+          <t>3965</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>1892</t>
+          <t>2594</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>7869</t>
+          <t>6001</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>2,99%</t>
         </is>
       </c>
     </row>
@@ -3131,22 +3131,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>508</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>210649</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>210649</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>210649</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3166,22 +3166,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>758</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>249240</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>249240</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>249240</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3201,22 +3201,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1138</t>
+          <t>1266</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>459889</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>459889</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>459889</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3248,107 +3248,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1430</t>
+          <t>2400</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>741804</t>
+          <t>422762</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>730992</t>
+          <t>417036</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>751711</t>
+          <t>428209</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>93,29%</t>
+          <t>90,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,93%</t>
+          <t>89,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>91,46%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1268</t>
+          <t>2289</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>709745</t>
+          <t>408910</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>697990</t>
+          <t>403696</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>720818</t>
+          <t>413844</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>92,76%</t>
+          <t>91,09%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,23%</t>
+          <t>89,93%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>94,21%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2698</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>1451549</t>
+          <t>831671</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1436899</t>
+          <t>823777</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1465797</t>
+          <t>838996</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>93,03%</t>
+          <t>90,68%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>92,09%</t>
+          <t>89,82%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>91,48%</t>
         </is>
       </c>
     </row>
@@ -3361,107 +3361,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>46415</t>
+          <t>29769</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37018</t>
+          <t>25591</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>57202</t>
+          <t>34676</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>49413</t>
+          <t>24362</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>38611</t>
+          <t>20564</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>61183</t>
+          <t>28848</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>325</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>95828</t>
+          <t>54130</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>82663</t>
+          <t>48246</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>110592</t>
+          <t>60155</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>6,56%</t>
         </is>
       </c>
     </row>
@@ -3474,107 +3474,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6927</t>
+          <t>15684</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3722</t>
+          <t>12284</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11708</t>
+          <t>19122</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5960</t>
+          <t>15652</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2995</t>
+          <t>12410</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10703</t>
+          <t>19924</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>159</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>12887</t>
+          <t>31335</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>7796</t>
+          <t>26567</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>19129</t>
+          <t>36603</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>3,99%</t>
         </is>
       </c>
     </row>
@@ -3587,22 +3587,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1537</t>
+          <t>2656</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>795146</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>795146</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>795146</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3622,22 +3622,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1366</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>765118</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>765118</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>765118</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3657,22 +3657,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2903</t>
+          <t>5173</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>1560264</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>1560264</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>1560264</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3704,107 +3704,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>831</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>345043</t>
+          <t>168187</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>334928</t>
+          <t>164050</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>352103</t>
+          <t>171286</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>93,12%</t>
+          <t>91,12%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>90,39%</t>
+          <t>88,88%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>95,03%</t>
+          <t>92,8%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>1084</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>363565</t>
+          <t>217686</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>351619</t>
+          <t>213143</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>373102</t>
+          <t>221636</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>89,73%</t>
+          <t>90,16%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>86,78%</t>
+          <t>88,27%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>92,09%</t>
+          <t>91,79%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>1915</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>708608</t>
+          <t>385873</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>694322</t>
+          <t>379613</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>720194</t>
+          <t>391138</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>91,35%</t>
+          <t>90,57%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>89,51%</t>
+          <t>89,1%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>92,85%</t>
+          <t>91,81%</t>
         </is>
       </c>
     </row>
@@ -3817,107 +3817,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23252</t>
+          <t>10036</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16758</t>
+          <t>7394</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32639</t>
+          <t>13157</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>34507</t>
+          <t>15803</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25828</t>
+          <t>12653</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>46220</t>
+          <t>19587</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>136</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>57759</t>
+          <t>25839</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>46665</t>
+          <t>21586</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>71141</t>
+          <t>30692</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>7,2%</t>
         </is>
       </c>
     </row>
@@ -3930,107 +3930,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2229</t>
+          <t>6361</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6245</t>
+          <t>9116</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7099</t>
+          <t>7966</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3511</t>
+          <t>5700</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>12293</t>
+          <t>10905</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>71</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>9328</t>
+          <t>14327</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>4837</t>
+          <t>11236</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>16148</t>
+          <t>18423</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>4,32%</t>
         </is>
       </c>
     </row>
@@ -4043,22 +4043,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>913</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>370523</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>370523</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>370523</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4078,22 +4078,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>1209</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>405171</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>405171</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>405171</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4113,22 +4113,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>2122</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>775695</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>775695</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>775695</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4160,107 +4160,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2542</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1280815</t>
+          <t>665928</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1263818</t>
+          <t>658613</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1293744</t>
+          <t>672893</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>93,06%</t>
+          <t>90,54%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>91,83%</t>
+          <t>89,54%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>94,0%</t>
+          <t>91,48%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2434</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1300931</t>
+          <t>734476</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1283848</t>
+          <t>726904</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1316782</t>
+          <t>741243</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>91,65%</t>
+          <t>90,87%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>90,44%</t>
+          <t>89,93%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>92,76%</t>
+          <t>91,71%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>4976</t>
+          <t>7761</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>2581746</t>
+          <t>1400404</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>2559041</t>
+          <t>1390062</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>2604751</t>
+          <t>1410237</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>92,34%</t>
+          <t>90,71%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>91,53%</t>
+          <t>90,04%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>93,16%</t>
+          <t>91,35%</t>
         </is>
       </c>
     </row>
@@ -4273,107 +4273,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>262</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>85165</t>
+          <t>45744</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>72639</t>
+          <t>40203</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>100899</t>
+          <t>52047</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>282</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>102419</t>
+          <t>48015</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>87370</t>
+          <t>42382</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>118753</t>
+          <t>54376</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>544</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>187584</t>
+          <t>93759</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>165207</t>
+          <t>86034</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>208292</t>
+          <t>102343</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>6,63%</t>
         </is>
       </c>
     </row>
@@ -4386,107 +4386,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>10338</t>
+          <t>23851</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6323</t>
+          <t>19617</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>16122</t>
+          <t>29286</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>135</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>16179</t>
+          <t>25777</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>10952</t>
+          <t>21369</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>24665</t>
+          <t>30636</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>256</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>26518</t>
+          <t>49628</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>19250</t>
+          <t>43167</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>35174</t>
+          <t>55914</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>3,62%</t>
         </is>
       </c>
     </row>
@@ -4499,22 +4499,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2725</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1376318</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1376318</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1376318</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -4534,22 +4534,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2640</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1419530</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1419530</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1419530</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -4569,22 +4569,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>5365</t>
+          <t>8561</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>2795848</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>2795848</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>2795848</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
